--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,15 +22,27 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>008988</t>
+  </si>
+  <si>
+    <t>008989</t>
+  </si>
+  <si>
     <t>000458</t>
   </si>
   <si>
@@ -40,10 +52,10 @@
     <t>001271</t>
   </si>
   <si>
-    <t>008988</t>
-  </si>
-  <si>
-    <t>008989</t>
+    <t>大成科技创新混合A</t>
+  </si>
+  <si>
+    <t>大成科技创新混合C</t>
   </si>
   <si>
     <t>英大领先回报混合</t>
@@ -55,10 +67,22 @@
     <t>英大灵活配置混合B</t>
   </si>
   <si>
-    <t>大成科技创新混合A</t>
-  </si>
-  <si>
-    <t>大成科技创新混合C</t>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>91.22</t>
   </si>
   <si>
     <t>92.41</t>
@@ -67,7 +91,7 @@
     <t>93.33</t>
   </si>
   <si>
-    <t>91.22</t>
+    <t>2.59</t>
   </si>
   <si>
     <t>3.14</t>
@@ -76,7 +100,19 @@
     <t>2.64</t>
   </si>
   <si>
-    <t>2.59</t>
+    <t>0.0862</t>
+  </si>
+  <si>
+    <t>0.0414</t>
+  </si>
+  <si>
+    <t>0.0214</t>
+  </si>
+  <si>
+    <t>0.0124</t>
+  </si>
+  <si>
+    <t>0.0121</t>
   </si>
 </sst>
 </file>
@@ -434,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,105 +492,141 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -1,150 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>008988</t>
-  </si>
-  <si>
-    <t>008989</t>
-  </si>
-  <si>
-    <t>000458</t>
-  </si>
-  <si>
-    <t>001270</t>
-  </si>
-  <si>
-    <t>001271</t>
-  </si>
-  <si>
-    <t>大成科技创新混合A</t>
-  </si>
-  <si>
-    <t>大成科技创新混合C</t>
-  </si>
-  <si>
-    <t>英大领先回报混合</t>
-  </si>
-  <si>
-    <t>英大灵活配置混合A</t>
-  </si>
-  <si>
-    <t>英大灵活配置混合B</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>1.60</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>91.22</t>
-  </si>
-  <si>
-    <t>92.41</t>
-  </si>
-  <si>
-    <t>93.33</t>
-  </si>
-  <si>
-    <t>2.59</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>0.0862</t>
-  </si>
-  <si>
-    <t>0.0414</t>
-  </si>
-  <si>
-    <t>0.0214</t>
-  </si>
-  <si>
-    <t>0.0124</t>
-  </si>
-  <si>
-    <t>0.0121</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,167 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1143,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1159,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1290,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1306,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1227,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1238,17 +1239,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1258,14 +1279,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1274,14 +1317,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
@@ -1290,14 +1423,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -1306,14 +1439,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -1322,13 +1455,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0862</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0414</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000458</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>英大领先回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.41</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001270</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001271</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>080001</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛成长价值混合</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74.92</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0475</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -791,112 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>570006</t>
+          <t>007041</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺德中小盘混合</t>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005281</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中科沃土转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006235</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方城镇消费主题混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -910,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -961,36 +771,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1119,7 +965,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1149,72 +995,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004634</t>
+          <t>006235</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
+          <t>东方城镇消费主题混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>84.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0099</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1249,7 +1059,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1279,36 +1089,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004634</t>
+          <t>080001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
+          <t>长盛成长价值混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>74.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0551</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1317,36 +1127,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007041</t>
+          <t>570006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
+          <t>诺德中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1360,128 +1246,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01</v>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.17</v>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +504,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0551</t>
+          <t>0.0924</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,102 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -781,26 +874,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -819,24 +912,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,36 +996,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +1096,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1005,22 +1136,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1033,6 +1164,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +1465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002612-朗姿股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方产业智选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004634</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发招利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015839</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发招利混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -800,138 +1253,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004634</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007041</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳涛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1006,26 +1327,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0583</t>
+          <t>0.0551</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1044,24 +1365,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.65</t>
+          <t>93.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1075,7 +1398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,36 +1449,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006235</t>
+          <t>004634</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方城镇消费主题混合</t>
+          <t>新疆前海联合泳涛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0583</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007041</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳涛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1549,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1230,22 +1589,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.44</t>
+          <t>92.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0099</t>
+          <t>0.0319</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1258,6 +1617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方城镇消费主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1465,7 +1918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
